--- a/src/main/resources/script/db/init-data/workflow_service/hzero_platform/hzero-profile.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_platform/hzero-profile.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\hand\choerodon\workflow-service\src\main\resources\script\db\init-data\workflow_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E106334-209B-452D-9F33-AEB0B98CF227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="配置维护" r:id="rId5" sheetId="2"/>
+    <sheet name="配置维护" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2082,9 +2096,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2203,89 +2216,114 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2426,7 +2464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2478,6 +2516,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2493,27 +2549,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2853,59 +2892,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.35546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.35546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+    <row r="4" spans="1:8">
+      <c r="C4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2922,7 +2961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -2942,7 +2981,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="49.5">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -2956,7 +2995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="49.5">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -2967,7 +3006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="66">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -2999,7 +3038,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="33">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3016,13 +3055,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3030,7 +3069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3038,7 +3077,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3046,7 +3085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3058,21 +3097,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="45"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="49.5">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3094,39 +3133,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:11">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:11">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3136,13 +3177,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3154,37 +3195,37 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="42">
+      <c r="J7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="43">
+      <c r="K7" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" t="s">
+    <row r="8" spans="1:11">
+      <c r="E8" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3194,19 +3235,19 @@
       <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s" s="44">
+      <c r="D10" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s" s="45">
+      <c r="E10" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s" s="46">
+      <c r="F10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G10" t="s" s="47">
+      <c r="G10" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="H10" t="s" s="48">
+      <c r="H10" s="43" t="s">
         <v>72</v>
       </c>
       <c r="I10" t="s">
@@ -3216,27 +3257,31 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" t="s">
+    <row r="11" spans="1:11">
+      <c r="E11" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="44" t="str">
         <f>配置维护!$E$8</f>
-      </c>
-      <c r="G11" t="s">
+        <v>hpfm_profile-8</v>
+      </c>
+      <c r="G11" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="44" t="s">
         <v>66</v>
       </c>
+      <c r="K11" s="44"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>